--- a/02-软件设计/方案验证/_MFC_File/FileDataBase/CopyFile.xlsx
+++ b/02-软件设计/方案验证/_MFC_File/FileDataBase/CopyFile.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>脚环编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,9 +44,6 @@
   <si>
     <t>备注内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello OpenExistExcelFile</t>
   </si>
 </sst>
 </file>
@@ -635,14 +632,7 @@
     <col min="3" max="6" width="9.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s">
-        <v>7</v>
-      </c>
-    </row>
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>2</v>
